--- a/Plotting Dataframe for Testing - 7.xlsx
+++ b/Plotting Dataframe for Testing - 7.xlsx
@@ -41275,28 +41275,28 @@
         <v>0</v>
       </c>
       <c r="BR35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ35" t="n">
         <v>0</v>
@@ -42470,28 +42470,28 @@
         <v>0</v>
       </c>
       <c r="BR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ36" t="n">
         <v>0</v>
@@ -43268,97 +43268,97 @@
         <v>0</v>
       </c>
       <c r="LX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC36" t="n">
         <v>0</v>
@@ -43647,94 +43647,94 @@
         <v>1</v>
       </c>
       <c r="BL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP37" t="n">
         <v>1</v>
@@ -44058,322 +44058,322 @@
         <v>1</v>
       </c>
       <c r="GS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU37" t="n">
         <v>0</v>
@@ -44463,97 +44463,97 @@
         <v>0</v>
       </c>
       <c r="LX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC37" t="n">
         <v>0</v>
@@ -44842,94 +44842,94 @@
         <v>1</v>
       </c>
       <c r="BL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP38" t="n">
         <v>1</v>
@@ -45253,322 +45253,322 @@
         <v>1</v>
       </c>
       <c r="GS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU38" t="n">
         <v>0</v>
@@ -45658,97 +45658,97 @@
         <v>0</v>
       </c>
       <c r="LX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ML38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NC38" t="n">
         <v>0</v>

--- a/Plotting Dataframe for Testing - 7.xlsx
+++ b/Plotting Dataframe for Testing - 7.xlsx
@@ -31787,325 +31787,325 @@
         <v>0</v>
       </c>
       <c r="CP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS27" t="n">
         <v>0</v>
@@ -32982,325 +32982,325 @@
         <v>0</v>
       </c>
       <c r="CP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS28" t="n">
         <v>0</v>
@@ -34177,184 +34177,184 @@
         <v>0</v>
       </c>
       <c r="CP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX29" t="n">
         <v>0</v>
@@ -35279,25 +35279,25 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30" t="n">
         <v>0</v>
@@ -35372,184 +35372,184 @@
         <v>0</v>
       </c>
       <c r="CP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX30" t="n">
         <v>0</v>
@@ -36441,22 +36441,22 @@
         <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" t="n">
         <v>0</v>
@@ -36474,25 +36474,25 @@
         <v>0</v>
       </c>
       <c r="BK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR31" t="n">
         <v>0</v>
@@ -36567,184 +36567,184 @@
         <v>0</v>
       </c>
       <c r="CP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX31" t="n">
         <v>0</v>
@@ -37636,22 +37636,22 @@
         <v>0</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" t="n">
         <v>0</v>
@@ -37669,25 +37669,25 @@
         <v>0</v>
       </c>
       <c r="BK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" t="n">
         <v>0</v>
@@ -37762,184 +37762,184 @@
         <v>0</v>
       </c>
       <c r="CP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX32" t="n">
         <v>0</v>
@@ -38723,877 +38723,877 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU33" t="n">
         <v>0</v>
@@ -39918,877 +39918,877 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU34" t="n">
         <v>0</v>
@@ -41113,877 +41113,877 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU35" t="n">
         <v>0</v>
@@ -44860,28 +44860,28 @@
         <v>0</v>
       </c>
       <c r="BR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ38" t="n">
         <v>0</v>
